--- a/WTM/ToCopy_LowerMon_Adapted.xlsx
+++ b/WTM/ToCopy_LowerMon_Adapted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcamp\Documents\GitHub\TDEC_BacteriaModeling\WTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB19F67-E8CF-45C9-A700-A6C86C07FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419126A-66E2-46B1-A234-76D7758D9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -4497,8 +4497,8 @@
   </sheetPr>
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
@@ -30041,7 +30041,7 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32604,7 +32604,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33538,7 +33538,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:I23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34151,7 +34151,7 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -36189,8 +36189,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37892,7 +37892,7 @@
   <dimension ref="A1:BC148"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
@@ -43244,7 +43244,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44362,8 +44362,8 @@
   </sheetPr>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WTM/ToCopy_LowerMon_Adapted.xlsx
+++ b/WTM/ToCopy_LowerMon_Adapted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcamp\Documents\GitHub\TDEC_BacteriaModeling\WTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419126A-66E2-46B1-A234-76D7758D9542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5AE5B2-FC54-4266-AD1A-9984CC4FA0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="831" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -4498,9 +4498,9 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9342,7 +9342,7 @@
       <c r="C101" s="6"/>
       <c r="D101" s="211">
         <f>(SewageData!B9*SewageData!B14-Scenarios!G144*Scenarios!G145)*(1-IF(Scenarios!G130="yes",Scenarios!G131*Scenarios!G132,0))*(1-IF(Scenarios!G134="yes",Scenarios!G135*Scenarios!G136,0))*(1-IF(Scenarios!G138="yes",Scenarios!G139*Scenarios!G140,0))/MAX((SewageData!B9-Scenarios!G144),0.001)</f>
-        <v>0.13773752772286021</v>
+        <v>9.897339193148183E-2</v>
       </c>
       <c r="E101" s="156"/>
       <c r="I101"/>
@@ -9370,7 +9370,7 @@
       </c>
       <c r="D103" s="412">
         <f>(D100*D101*(SewageData!B16*(1-D102)*SewageData!B17+SewageData!B15*D102*SewageData!B18))</f>
-        <v>288873.81046184077</v>
+        <v>207574.66272450861</v>
       </c>
       <c r="F103" s="156" t="s">
         <v>483</v>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="D104" s="412">
         <f>SewageData!B19-Completed!D103</f>
-        <v>132809.53273815924</v>
+        <v>214108.68047549139</v>
       </c>
       <c r="E104" s="156"/>
       <c r="I104" s="16"/>
@@ -9512,7 +9512,7 @@
       <c r="C113" s="406"/>
       <c r="D113" s="441">
         <f>+D92+D98+D104+D110+D112</f>
-        <v>117160.33273815924</v>
+        <v>198459.48047549138</v>
       </c>
       <c r="E113" s="210"/>
       <c r="H113" s="190"/>
@@ -30040,8 +30040,8 @@
   </sheetPr>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30272,11 +30272,11 @@
       </c>
       <c r="B15" s="134">
         <f>+C63</f>
-        <v>2082823.3460940742</v>
+        <v>2164122.4938314063</v>
       </c>
       <c r="C15" s="134">
         <f>+C63</f>
-        <v>2082823.3460940742</v>
+        <v>2164122.4938314063</v>
       </c>
       <c r="D15" s="135"/>
       <c r="E15" s="376"/>
@@ -30290,11 +30290,11 @@
       </c>
       <c r="B16" s="135">
         <f>+B15/B11</f>
-        <v>0.44475317226400063</v>
+        <v>0.46211328776604044</v>
       </c>
       <c r="C16" s="135">
         <f>+C15/C11</f>
-        <v>0.44475317226400063</v>
+        <v>0.46211328776604044</v>
       </c>
       <c r="H16" s="136"/>
       <c r="I16" s="156"/>
@@ -30305,11 +30305,11 @@
       </c>
       <c r="B17" s="135">
         <f>+B15/B14</f>
-        <v>0.98125355160286964</v>
+        <v>1.0195549647347832</v>
       </c>
       <c r="C17" s="135">
         <f>+C15/C14</f>
-        <v>1.1933467462958902</v>
+        <v>1.2399268240595243</v>
       </c>
       <c r="H17" s="137"/>
     </row>
@@ -30694,11 +30694,11 @@
       </c>
       <c r="B60" s="56">
         <f>+'Summary-Reductions'!D37</f>
-        <v>158392.9060728288</v>
+        <v>239692.05381016096</v>
       </c>
       <c r="C60" s="56">
         <f>C59+B60</f>
-        <v>158392.9060728288</v>
+        <v>239692.05381016096</v>
       </c>
       <c r="E60" s="59"/>
       <c r="F60" s="445"/>
@@ -30717,7 +30717,7 @@
       </c>
       <c r="C61" s="56">
         <f>C60+B61</f>
-        <v>298162.00683690351</v>
+        <v>379461.15457423567</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="445"/>
@@ -30736,7 +30736,7 @@
       </c>
       <c r="C62" s="56">
         <f>C61+B62</f>
-        <v>1061144.1709984555</v>
+        <v>1142443.3187357876</v>
       </c>
       <c r="E62" s="59"/>
       <c r="F62" s="445"/>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="C63" s="57">
         <f>C62+B63</f>
-        <v>2082823.3460940742</v>
+        <v>2164122.4938314063</v>
       </c>
       <c r="E63" s="446"/>
       <c r="F63" s="445"/>
@@ -31042,7 +31042,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F107" sqref="F107"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31936,7 +31936,7 @@
       </c>
       <c r="D33" s="382">
         <f>+Completed!$D$104</f>
-        <v>132809.53273815924</v>
+        <v>214108.68047549139</v>
       </c>
       <c r="E33" s="382">
         <f>+Programmed!$D$104</f>
@@ -32042,7 +32042,7 @@
       </c>
       <c r="D36" s="404">
         <f>SUM(D30:D35)</f>
-        <v>121540.11117997886</v>
+        <v>202839.258917311</v>
       </c>
       <c r="E36" s="404">
         <f>SUM(E30:E35)</f>
@@ -32082,7 +32082,7 @@
       </c>
       <c r="D37" s="407">
         <f>+D13+D29+D36</f>
-        <v>158392.9060728288</v>
+        <v>239692.05381016096</v>
       </c>
       <c r="E37" s="407">
         <f>+E13+E29+E36</f>
@@ -32604,7 +32604,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33538,7 +33538,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36189,8 +36189,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37892,10 +37892,10 @@
   <dimension ref="A1:BC148"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomRight" activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42542,7 +42542,9 @@
       <c r="G131" s="242">
         <v>1</v>
       </c>
-      <c r="H131" s="413"/>
+      <c r="H131" s="413">
+        <v>11178</v>
+      </c>
       <c r="I131" s="242">
         <v>1</v>
       </c>
@@ -42574,10 +42576,11 @@
       <c r="F132" s="8"/>
       <c r="G132" s="414">
         <f>+H132/SewageData!$B$9</f>
-        <v>0.30416890320271961</v>
+        <v>0.5</v>
       </c>
       <c r="H132" s="419">
-        <v>3400</v>
+        <f>H131/2</f>
+        <v>5589</v>
       </c>
       <c r="I132" s="414">
         <f>+J132/SewageData!$B$9</f>
@@ -44362,7 +44365,7 @@
   </sheetPr>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
